--- a/hardware/Eagle Designs/batteryboard-v2.1/BOM batteryboard.xlsx
+++ b/hardware/Eagle Designs/batteryboard-v2.1/BOM batteryboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahumo\Documents\Artemis\pycubed battery board edits\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{30BBA01F-56C1-4C9D-B85E-8D923F570232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A524CE3-F48C-449E-8BF6-93AFEF0AAE67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{32871363-3E49-4D90-88CF-711F8E7347DB}"/>
   </bookViews>
@@ -87,9 +87,6 @@
     <t>R5</t>
   </si>
   <si>
-    <t>27k</t>
-  </si>
-  <si>
     <t>J2,J4,J6,J5,J3,J1</t>
   </si>
   <si>
@@ -223,6 +220,9 @@
   </si>
   <si>
     <t>C3,C4,C2,C1,C5</t>
+  </si>
+  <si>
+    <t>45.3k</t>
   </si>
 </sst>
 </file>
@@ -631,7 +631,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -712,7 +712,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>11</v>
@@ -729,16 +729,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="D4">
         <v>6</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>11</v>
@@ -755,16 +755,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>11</v>
@@ -781,16 +781,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="D6">
         <v>4</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>11</v>
@@ -807,16 +807,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>11</v>
@@ -833,16 +833,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="D8">
         <v>6</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>11</v>
@@ -859,16 +859,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>11</v>
@@ -885,16 +885,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>11</v>
@@ -911,16 +911,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="D11">
         <v>4</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>11</v>
@@ -937,16 +937,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12">
         <v>4</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>11</v>
@@ -963,16 +963,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>11</v>
@@ -989,16 +989,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D14">
         <v>2</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>11</v>
@@ -1015,16 +1015,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>11</v>
@@ -1041,16 +1041,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="D16">
         <v>2</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>11</v>
@@ -1067,16 +1067,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>11</v>
@@ -1093,16 +1093,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="D18">
         <v>3</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>11</v>
@@ -1119,16 +1119,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="D19">
         <v>2</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>11</v>
@@ -1145,16 +1145,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>11</v>
